--- a/artfynd/A 51291-2020.xlsx
+++ b/artfynd/A 51291-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73597119</v>
+        <v>73597132</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547612.7726986299</v>
+        <v>547652.7113268778</v>
       </c>
       <c r="R2" t="n">
-        <v>6316131.699817351</v>
+        <v>6316314.685237627</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73597132</v>
+        <v>73597141</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>90638</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,42 +809,48 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>1968</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547652.7113268778</v>
+        <v>547691.5552455339</v>
       </c>
       <c r="R3" t="n">
-        <v>6316314.685237627</v>
+        <v>6316307.503416191</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73597141</v>
+        <v>73597123</v>
       </c>
       <c r="B4" t="n">
-        <v>90638</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,48 +932,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547691.5552455339</v>
+        <v>547653.6261101332</v>
       </c>
       <c r="R4" t="n">
-        <v>6316307.503416191</v>
+        <v>6316282.549729379</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73597118</v>
+        <v>73597145</v>
       </c>
       <c r="B5" t="n">
-        <v>90674</v>
+        <v>88902</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,29 +1049,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5734</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Pers.:Fr.) Bourdot</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1079,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547583.5596947527</v>
+        <v>547718.5968906851</v>
       </c>
       <c r="R5" t="n">
-        <v>6316155.88396339</v>
+        <v>6316282.206264257</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1125,6 +1133,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>i barrskog</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1152,10 +1165,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73597123</v>
+        <v>73597149</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>88935</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,42 +1177,48 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>5733</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Vent.) Schild</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547653.6261101332</v>
+        <v>547694.2595349815</v>
       </c>
       <c r="R6" t="n">
-        <v>6316282.549729379</v>
+        <v>6316309.713867268</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1242,6 +1261,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>kalkbarrskog</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1269,10 +1293,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73597145</v>
+        <v>88523914</v>
       </c>
       <c r="B7" t="n">
-        <v>88902</v>
+        <v>90665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,30 +1305,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5734</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1315,17 +1339,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
+          <t>Målakärret, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547718.5968906851</v>
+        <v>547762.8372519773</v>
       </c>
       <c r="R7" t="n">
-        <v>6316282.206264257</v>
+        <v>6316280.535576544</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1349,27 +1373,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>i barrskog</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,29 +1397,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73597120</v>
+        <v>88567647</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1413,41 +1431,49 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
+          <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547623.3967533131</v>
+        <v>547657.2139831857</v>
       </c>
       <c r="R8" t="n">
-        <v>6316157.430439071</v>
+        <v>6316255.348338012</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1497,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1481,7 +1507,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1502,22 +1528,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73597149</v>
+        <v>73597119</v>
       </c>
       <c r="B9" t="n">
-        <v>88935</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,48 +1552,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5733</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547694.2595349815</v>
+        <v>547612.7726986299</v>
       </c>
       <c r="R9" t="n">
-        <v>6316309.713867268</v>
+        <v>6316131.699817351</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1610,11 +1630,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>kalkbarrskog</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1642,10 +1657,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88523914</v>
+        <v>73597118</v>
       </c>
       <c r="B10" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1658,47 +1673,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Målakärret, Sm</t>
+          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547762.8372519773</v>
+        <v>547583.5596947527</v>
       </c>
       <c r="R10" t="n">
-        <v>6316280.535576544</v>
+        <v>6316155.88396339</v>
       </c>
       <c r="S10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1722,22 +1729,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1746,28 +1753,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88567647</v>
+        <v>73597120</v>
       </c>
       <c r="B11" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1780,49 +1788,41 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fagraskog, Sm</t>
+          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547657.2139831857</v>
+        <v>547623.3967533131</v>
       </c>
       <c r="R11" t="n">
-        <v>6316255.348338012</v>
+        <v>6316157.430439071</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1877,12 +1877,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>

--- a/artfynd/A 51291-2020.xlsx
+++ b/artfynd/A 51291-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73597132</v>
+        <v>73597119</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547652.7113268778</v>
+        <v>547612.7726986299</v>
       </c>
       <c r="R2" t="n">
-        <v>6316314.685237627</v>
+        <v>6316131.699817351</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73597141</v>
+        <v>73597132</v>
       </c>
       <c r="B3" t="n">
-        <v>90638</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,48 +809,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547691.5552455339</v>
+        <v>547652.7113268778</v>
       </c>
       <c r="R3" t="n">
-        <v>6316307.503416191</v>
+        <v>6316314.685237627</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73597123</v>
+        <v>73597141</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>90638</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,42 +926,48 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547653.6261101332</v>
+        <v>547691.5552455339</v>
       </c>
       <c r="R4" t="n">
-        <v>6316282.549729379</v>
+        <v>6316307.503416191</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73597145</v>
+        <v>73597118</v>
       </c>
       <c r="B5" t="n">
-        <v>88902</v>
+        <v>90674</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,37 +1049,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5734</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1087,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547718.5968906851</v>
+        <v>547583.5596947527</v>
       </c>
       <c r="R5" t="n">
-        <v>6316282.206264257</v>
+        <v>6316155.88396339</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,11 +1125,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>i barrskog</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1165,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73597149</v>
+        <v>73597123</v>
       </c>
       <c r="B6" t="n">
-        <v>88935</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1177,48 +1164,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5733</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547694.2595349815</v>
+        <v>547653.6261101332</v>
       </c>
       <c r="R6" t="n">
-        <v>6316309.713867268</v>
+        <v>6316282.549729379</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,11 +1242,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>kalkbarrskog</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1293,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88523914</v>
+        <v>73597145</v>
       </c>
       <c r="B7" t="n">
-        <v>90665</v>
+        <v>88902</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1305,30 +1281,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>5734</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1339,17 +1315,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Målakärret, Sm</t>
+          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547762.8372519773</v>
+        <v>547718.5968906851</v>
       </c>
       <c r="R7" t="n">
-        <v>6316280.535576544</v>
+        <v>6316282.206264257</v>
       </c>
       <c r="S7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1373,22 +1349,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>i barrskog</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1397,28 +1378,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88567647</v>
+        <v>73597120</v>
       </c>
       <c r="B8" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1431,49 +1413,41 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Fagraskog, Sm</t>
+          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547657.2139831857</v>
+        <v>547623.3967533131</v>
       </c>
       <c r="R8" t="n">
-        <v>6316255.348338012</v>
+        <v>6316157.430439071</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1497,7 +1471,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1507,7 +1481,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1528,22 +1502,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73597119</v>
+        <v>73597149</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>88935</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1552,42 +1526,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>5733</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Vent.) Schild</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547612.7726986299</v>
+        <v>547694.2595349815</v>
       </c>
       <c r="R9" t="n">
-        <v>6316131.699817351</v>
+        <v>6316309.713867268</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1630,6 +1610,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>kalkbarrskog</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1657,10 +1642,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73597118</v>
+        <v>88523914</v>
       </c>
       <c r="B10" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,39 +1658,47 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
+          <t>Målakärret, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547583.5596947527</v>
+        <v>547762.8372519773</v>
       </c>
       <c r="R10" t="n">
-        <v>6316155.88396339</v>
+        <v>6316280.535576544</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1729,22 +1722,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1753,29 +1746,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73597120</v>
+        <v>88567647</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,41 +1780,49 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kalkbarrskog 1 km O Fagraskog, Sm</t>
+          <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547623.3967533131</v>
+        <v>547657.2139831857</v>
       </c>
       <c r="R11" t="n">
-        <v>6316157.430439071</v>
+        <v>6316255.348338012</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1877,12 +1877,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
